--- a/data/trans_orig/P62AS1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P62AS1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E0A3596-BBD6-461D-91FF-6865B0082DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABE5F894-2546-4C67-8847-073FAEA2D492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F62D5F6A-DEA3-4E2D-9ED5-18C45BDB2DE3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{907E6214-E782-4513-8146-BE6264A751B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="417">
   <si>
     <t>Población según el tipo de pensión que recibe / respuesta 1 en 2007 (Tasa respuesta: 20,17%)</t>
   </si>
@@ -79,1213 +79,1216 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,71%</t>
+    <t>1,64%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>1,29%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>Invalidez o incapacidad permanente</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>Viudedad</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>Jubilacion</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2012 (Tasa respuesta: 22,64%)</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2015 (Tasa respuesta: 23,41%)</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>Invalidez o incapacidad permanente</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>Viudedad</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>Jubilacion</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2012 (Tasa respuesta: 22,64%)</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2015 (Tasa respuesta: 23,41%)</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,63%</t>
+    <t>0,52%</t>
   </si>
   <si>
     <t>35,1%</t>
   </si>
   <si>
-    <t>31,6%</t>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
   </si>
   <si>
     <t>15,87%</t>
   </si>
   <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>43,01%</t>
   </si>
   <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
   </si>
   <si>
     <t>65,29%</t>
   </si>
   <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2077A8F4-1725-4631-A4A5-36D09B532921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F21A740-CC88-47AC-BFB8-B52EF0258901}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2404,10 +2407,10 @@
         <v>96</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -2416,13 +2419,13 @@
         <v>8444</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,7 +2446,7 @@
         <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2452,13 +2455,13 @@
         <v>6411</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2467,13 +2470,13 @@
         <v>6411</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2491,13 @@
         <v>55530</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -2503,13 +2506,13 @@
         <v>29567</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -2518,13 +2521,13 @@
         <v>85097</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,13 +2595,13 @@
         <v>6458</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -2607,13 +2610,13 @@
         <v>27202</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -2622,13 +2625,13 @@
         <v>33660</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,13 +2646,13 @@
         <v>72092</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -2658,13 +2661,13 @@
         <v>47411</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M20" s="7">
         <v>116</v>
@@ -2673,13 +2676,13 @@
         <v>119503</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,13 +2697,13 @@
         <v>2025</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -2709,13 +2712,13 @@
         <v>280443</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>269</v>
@@ -2724,13 +2727,13 @@
         <v>282468</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2748,13 @@
         <v>657299</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>217</v>
@@ -2760,13 +2763,13 @@
         <v>221030</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>895</v>
@@ -2775,13 +2778,13 @@
         <v>878329</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2840,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2856,7 +2859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439339B1-41C0-4157-AF19-23121C0AAEA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23275269-B22F-4E8A-A97F-1C9174AE287D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2873,7 +2876,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2980,13 +2983,13 @@
         <v>22452</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -2995,7 +2998,7 @@
         <v>35266</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>158</v>
@@ -3375,7 +3378,7 @@
         <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3393,13 @@
         <v>167132</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -3405,13 +3408,13 @@
         <v>43605</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M12" s="7">
         <v>188</v>
@@ -3420,13 +3423,13 @@
         <v>210738</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,7 +3497,7 @@
         <v>937</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
@@ -3548,10 +3551,10 @@
         <v>230</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -3560,13 +3563,13 @@
         <v>5717</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M15" s="7">
         <v>12</v>
@@ -3575,13 +3578,13 @@
         <v>14311</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,7 +3605,7 @@
         <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3611,13 +3614,13 @@
         <v>1975</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3626,13 +3629,13 @@
         <v>1975</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3650,13 @@
         <v>36094</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -3662,13 +3665,13 @@
         <v>21495</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -3677,13 +3680,13 @@
         <v>57588</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3754,13 @@
         <v>59271</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>88</v>
@@ -3766,13 +3769,13 @@
         <v>96076</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -3781,13 +3784,13 @@
         <v>155347</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3805,13 @@
         <v>141919</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>68</v>
@@ -3817,13 +3820,13 @@
         <v>77392</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M20" s="7">
         <v>196</v>
@@ -3832,13 +3835,13 @@
         <v>219311</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3856,13 @@
         <v>3039</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H21" s="7">
         <v>284</v>
@@ -3868,13 +3871,13 @@
         <v>305576</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>286</v>
@@ -3883,13 +3886,13 @@
         <v>308615</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3907,13 @@
         <v>665857</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H22" s="7">
         <v>244</v>
@@ -3919,13 +3922,13 @@
         <v>263932</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M22" s="7">
         <v>847</v>
@@ -3934,13 +3937,13 @@
         <v>929789</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,7 +3999,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4015,7 +4018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED8E19D-F94A-49AD-B8B3-5B11E72C3E4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5962C6D6-9496-480F-A213-6F7A4280C6B5}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4032,7 +4035,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4139,13 +4142,13 @@
         <v>17708</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>288</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -4154,13 +4157,13 @@
         <v>48032</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>288</v>
+        <v>223</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -4169,13 +4172,13 @@
         <v>65740</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4193,13 @@
         <v>21464</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>27</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4205,13 +4208,13 @@
         <v>20957</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -4220,13 +4223,13 @@
         <v>42421</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>298</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,7 +4250,7 @@
         <v>69</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H6" s="7">
         <v>159</v>
@@ -4256,13 +4259,13 @@
         <v>190696</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M6" s="7">
         <v>159</v>
@@ -4271,13 +4274,13 @@
         <v>190696</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4295,13 @@
         <v>401307</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H7" s="7">
         <v>145</v>
@@ -4307,13 +4310,13 @@
         <v>165798</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M7" s="7">
         <v>572</v>
@@ -4322,13 +4325,13 @@
         <v>567105</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4399,13 @@
         <v>36627</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H9" s="7">
         <v>48</v>
@@ -4411,13 +4414,13 @@
         <v>51685</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M9" s="7">
         <v>82</v>
@@ -4426,13 +4429,13 @@
         <v>88312</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>323</v>
+        <v>132</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4450,13 @@
         <v>60892</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4462,13 +4465,13 @@
         <v>27682</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -4477,13 +4480,13 @@
         <v>88574</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4501,13 @@
         <v>935</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H11" s="7">
         <v>52</v>
@@ -4513,13 +4516,13 @@
         <v>63463</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M11" s="7">
         <v>53</v>
@@ -4528,13 +4531,13 @@
         <v>64398</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4552,13 @@
         <v>289084</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H12" s="7">
         <v>100</v>
@@ -4564,13 +4567,13 @@
         <v>114526</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M12" s="7">
         <v>381</v>
@@ -4579,13 +4582,13 @@
         <v>403610</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +4656,13 @@
         <v>3987</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -4668,13 +4671,13 @@
         <v>8670</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -4683,13 +4686,13 @@
         <v>12657</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4707,13 @@
         <v>5952</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>361</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -4719,13 +4722,13 @@
         <v>3996</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M15" s="7">
         <v>10</v>
@@ -4734,13 +4737,13 @@
         <v>9948</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>366</v>
+        <v>155</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,7 +4764,7 @@
         <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>369</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4770,13 +4773,13 @@
         <v>4074</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4785,13 +4788,13 @@
         <v>4074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4809,13 @@
         <v>59363</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -4821,13 +4824,13 @@
         <v>36036</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -4836,13 +4839,13 @@
         <v>95399</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,10 +4916,10 @@
         <v>166</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>384</v>
+        <v>21</v>
       </c>
       <c r="H19" s="7">
         <v>99</v>
@@ -4925,13 +4928,13 @@
         <v>108387</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>153</v>
@@ -4940,13 +4943,13 @@
         <v>166709</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4964,13 @@
         <v>88308</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -4976,13 +4979,13 @@
         <v>52635</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M20" s="7">
         <v>128</v>
@@ -4991,10 +4994,10 @@
         <v>140943</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>398</v>
+        <v>170</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>399</v>
@@ -5033,7 +5036,7 @@
         <v>403</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
       <c r="M21" s="7">
         <v>216</v>
@@ -5042,13 +5045,13 @@
         <v>259168</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5066,13 @@
         <v>749754</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
         <v>273</v>
@@ -5078,13 +5081,13 @@
         <v>316360</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
         <v>1036</v>
@@ -5093,13 +5096,13 @@
         <v>1066114</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,7 +5158,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P62AS1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P62AS1-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABE5F894-2546-4C67-8847-073FAEA2D492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{937E35A4-794F-4C3D-83DC-C2D8FF5908BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{907E6214-E782-4513-8146-BE6264A751B4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3EF9643F-E1E3-4CEF-BDAA-76954ACB1068}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="419">
   <si>
     <t>Población según el tipo de pensión que recibe / respuesta 1 en 2007 (Tasa respuesta: 20,17%)</t>
   </si>
@@ -79,1072 +79,1081 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,64%</t>
+    <t>1,68%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>1,3%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>Invalidez o incapacidad permanente</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>Viudedad</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>Jubilacion</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>Invalidez o incapacidad permanente</t>
-  </si>
-  <si>
-    <t>8,42%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2012 (Tasa respuesta: 22,64%)</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2016 (Tasa respuesta: 23,41%)</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>Viudedad</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>Jubilacion</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2012 (Tasa respuesta: 22,64%)</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
   </si>
   <si>
     <t>67,03%</t>
   </si>
   <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>5,75%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2015 (Tasa respuesta: 23,41%)</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>13,93%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
   </si>
   <si>
     <t>2,95%</t>
@@ -1153,142 +1162,139 @@
     <t>7,72%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>85,66%</t>
   </si>
   <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>68,28%</t>
   </si>
   <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
   </si>
   <si>
     <t>78,15%</t>
   </si>
   <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
   </si>
   <si>
     <t>14,73%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
+    <t>12,45%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>9,84%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>11,69%</t>
   </si>
   <si>
     <t>7,16%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
+    <t>5,39%</t>
   </si>
   <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>10,22%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,52%</t>
+    <t>0,59%</t>
   </si>
   <si>
     <t>35,1%</t>
   </si>
   <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
   </si>
   <si>
     <t>15,87%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
   </si>
   <si>
     <t>43,01%</t>
   </si>
   <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
   </si>
   <si>
     <t>65,29%</t>
   </si>
   <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
   </si>
 </sst>
 </file>
@@ -1700,7 +1706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F21A740-CC88-47AC-BFB8-B52EF0258901}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECEB2D2-2FE3-4EE2-BDB3-3A38AC3E26AF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2859,7 +2865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23275269-B22F-4E8A-A97F-1C9174AE287D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6056C34A-A97E-4E5D-8E53-40BEB77592E9}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2998,13 +3004,13 @@
         <v>35266</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -3013,13 +3019,13 @@
         <v>57718</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3040,13 @@
         <v>60886</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>33</v>
@@ -3049,13 +3055,13 @@
         <v>34875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>88</v>
@@ -3064,13 +3070,13 @@
         <v>95761</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3091,13 @@
         <v>3039</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7">
         <v>250</v>
@@ -3100,13 +3106,13 @@
         <v>267774</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M6" s="7">
         <v>252</v>
@@ -3115,13 +3121,13 @@
         <v>270813</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3142,13 @@
         <v>462631</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>187</v>
@@ -3151,13 +3157,13 @@
         <v>198832</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>611</v>
@@ -3166,13 +3172,13 @@
         <v>661463</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3246,13 @@
         <v>35883</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H9" s="7">
         <v>50</v>
@@ -3255,13 +3261,13 @@
         <v>54420</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M9" s="7">
         <v>82</v>
@@ -3270,13 +3276,13 @@
         <v>90302</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3297,13 @@
         <v>72438</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -3306,13 +3312,13 @@
         <v>36801</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>96</v>
@@ -3321,13 +3327,13 @@
         <v>109239</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,7 +3354,7 @@
         <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -3357,13 +3363,13 @@
         <v>35827</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -3372,13 +3378,13 @@
         <v>35827</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3503,13 @@
         <v>937</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -3512,13 +3518,13 @@
         <v>6390</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -3527,13 +3533,13 @@
         <v>7327</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,10 +3554,10 @@
         <v>8595</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>232</v>
@@ -3629,13 +3635,13 @@
         <v>1975</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3656,13 @@
         <v>36094</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -3665,13 +3671,13 @@
         <v>21495</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -3680,13 +3686,13 @@
         <v>57588</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3760,13 @@
         <v>59271</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>88</v>
@@ -3769,13 +3775,13 @@
         <v>96076</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -3784,13 +3790,13 @@
         <v>155347</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,7 +3811,7 @@
         <v>141919</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>262</v>
@@ -3877,7 +3883,7 @@
         <v>273</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>139</v>
+        <v>274</v>
       </c>
       <c r="M21" s="7">
         <v>286</v>
@@ -3886,13 +3892,13 @@
         <v>308615</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3913,13 @@
         <v>665857</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H22" s="7">
         <v>244</v>
@@ -3922,13 +3928,13 @@
         <v>263932</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M22" s="7">
         <v>847</v>
@@ -3937,13 +3943,13 @@
         <v>929789</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,7 +4024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5962C6D6-9496-480F-A213-6F7A4280C6B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A6E53E-7E16-4C4C-B26D-C78BD3DF4BCC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4035,7 +4041,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4142,13 +4148,13 @@
         <v>17708</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -4157,13 +4163,13 @@
         <v>48032</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -4172,13 +4178,13 @@
         <v>65740</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4199,13 @@
         <v>21464</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4208,13 +4214,13 @@
         <v>20957</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -4226,10 +4232,10 @@
         <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>126</v>
+        <v>303</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,7 +4256,7 @@
         <v>69</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H6" s="7">
         <v>159</v>
@@ -4259,13 +4265,13 @@
         <v>190696</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M6" s="7">
         <v>159</v>
@@ -4274,13 +4280,13 @@
         <v>190696</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4301,13 @@
         <v>401307</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H7" s="7">
         <v>145</v>
@@ -4310,13 +4316,13 @@
         <v>165798</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M7" s="7">
         <v>572</v>
@@ -4325,13 +4331,13 @@
         <v>567105</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4405,13 @@
         <v>36627</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H9" s="7">
         <v>48</v>
@@ -4414,13 +4420,13 @@
         <v>51685</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M9" s="7">
         <v>82</v>
@@ -4429,13 +4435,13 @@
         <v>88312</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>132</v>
+        <v>328</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4456,13 @@
         <v>60892</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4465,13 +4471,13 @@
         <v>27682</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -4480,13 +4486,13 @@
         <v>88574</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4507,13 @@
         <v>935</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H11" s="7">
         <v>52</v>
@@ -4516,13 +4522,13 @@
         <v>63463</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M11" s="7">
         <v>53</v>
@@ -4531,13 +4537,13 @@
         <v>64398</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4558,13 @@
         <v>289084</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H12" s="7">
         <v>100</v>
@@ -4567,13 +4573,13 @@
         <v>114526</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M12" s="7">
         <v>381</v>
@@ -4582,13 +4588,13 @@
         <v>403610</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,13 +4662,13 @@
         <v>3987</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -4671,13 +4677,13 @@
         <v>8670</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>355</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>357</v>
+        <v>207</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -4686,13 +4692,13 @@
         <v>12657</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4713,13 @@
         <v>5952</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -4722,13 +4728,13 @@
         <v>3996</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M15" s="7">
         <v>10</v>
@@ -4737,13 +4743,13 @@
         <v>9948</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>155</v>
+        <v>370</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,7 +4770,7 @@
         <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4773,13 +4779,13 @@
         <v>4074</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4788,13 +4794,13 @@
         <v>4074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4815,13 @@
         <v>59363</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -4824,13 +4830,13 @@
         <v>36036</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -4839,13 +4845,13 @@
         <v>95399</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4919,13 @@
         <v>58322</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>21</v>
+        <v>389</v>
       </c>
       <c r="H19" s="7">
         <v>99</v>
@@ -4928,13 +4934,13 @@
         <v>108387</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>225</v>
       </c>
       <c r="M19" s="7">
         <v>153</v>
@@ -4943,13 +4949,13 @@
         <v>166709</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,13 +4970,13 @@
         <v>88308</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -4979,13 +4985,13 @@
         <v>52635</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>397</v>
+        <v>191</v>
       </c>
       <c r="M20" s="7">
         <v>128</v>
@@ -4994,13 +5000,13 @@
         <v>140943</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +5021,13 @@
         <v>935</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H21" s="7">
         <v>215</v>
@@ -5030,13 +5036,13 @@
         <v>258234</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M21" s="7">
         <v>216</v>
@@ -5045,13 +5051,13 @@
         <v>259168</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,13 +5072,13 @@
         <v>749754</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H22" s="7">
         <v>273</v>
@@ -5081,13 +5087,13 @@
         <v>316360</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M22" s="7">
         <v>1036</v>
@@ -5096,13 +5102,13 @@
         <v>1066114</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
